--- a/data/data_clean/2020/GNB2020_bgt_revs.xlsx
+++ b/data/data_clean/2020/GNB2020_bgt_revs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>Municipality</t>
   </si>
@@ -44,6 +44,18 @@
   </si>
   <si>
     <t>Total Revenue</t>
+  </si>
+  <si>
+    <t>Bathurst</t>
+  </si>
+  <si>
+    <t>Campbellton</t>
+  </si>
+  <si>
+    <t>Dieppe</t>
+  </si>
+  <si>
+    <t>Edmundston</t>
   </si>
   <si>
     <t>Fredericton</t>
@@ -387,8 +399,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:J92" totalsRowShown="0">
-  <autoFilter ref="A1:J92"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:J96" totalsRowShown="0">
+  <autoFilter ref="A1:J96"/>
   <tableColumns count="10">
     <tableColumn id="1" name="Municipality" dataDxfId="0"/>
     <tableColumn id="2" name="Warrant" dataDxfId="1"/>
@@ -690,7 +702,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J92"/>
+  <dimension ref="A1:J96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -745,31 +757,31 @@
         <v>10</v>
       </c>
       <c r="B2" s="3">
-        <v>108183452</v>
+        <v>19153436</v>
       </c>
       <c r="C2" s="3">
-        <v>1890636</v>
+        <v>3624702</v>
       </c>
       <c r="D2" s="3">
-        <v>3336248</v>
+        <v>1013496</v>
       </c>
       <c r="E2" s="3">
-        <v>7046293</v>
+        <v>1164400</v>
       </c>
       <c r="F2" s="3">
-        <v>1824740</v>
+        <v>472498</v>
       </c>
       <c r="G2" s="3">
-        <v>107000</v>
+        <v>0</v>
       </c>
       <c r="H2" s="3">
-        <v>1742</v>
+        <v>500000</v>
       </c>
       <c r="I2" s="3">
-        <v>1988495</v>
+        <v>0</v>
       </c>
       <c r="J2" s="3">
-        <v>124378606</v>
+        <v>25928532</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -777,31 +789,31 @@
         <v>11</v>
       </c>
       <c r="B3" s="3">
-        <v>26819207</v>
+        <v>10686193</v>
       </c>
       <c r="C3" s="3">
-        <v>6268228</v>
+        <v>1889297</v>
       </c>
       <c r="D3" s="3">
-        <v>1019512</v>
+        <v>156231</v>
       </c>
       <c r="E3" s="3">
-        <v>804787</v>
+        <v>1093136</v>
       </c>
       <c r="F3" s="3">
-        <v>430500</v>
+        <v>503816</v>
       </c>
       <c r="G3" s="3">
-        <v>0</v>
+        <v>46500</v>
       </c>
       <c r="H3" s="3">
-        <v>637309</v>
+        <v>405200</v>
       </c>
       <c r="I3" s="3">
-        <v>19712</v>
+        <v>66867</v>
       </c>
       <c r="J3" s="3">
-        <v>35999255</v>
+        <v>14847240</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -809,31 +821,31 @@
         <v>12</v>
       </c>
       <c r="B4" s="3">
-        <v>143724760</v>
+        <v>53323334</v>
       </c>
       <c r="C4" s="3">
-        <v>3108999</v>
+        <v>1095459</v>
       </c>
       <c r="D4" s="3">
-        <v>3175793</v>
+        <v>345000</v>
       </c>
       <c r="E4" s="3">
-        <v>10280883</v>
+        <v>1697000</v>
       </c>
       <c r="F4" s="3">
-        <v>3110601</v>
+        <v>978500</v>
       </c>
       <c r="G4" s="3">
         <v>0</v>
       </c>
       <c r="H4" s="3">
-        <v>17</v>
+        <v>926441</v>
       </c>
       <c r="I4" s="3">
-        <v>171570</v>
+        <v>583007</v>
       </c>
       <c r="J4" s="3">
-        <v>163572623</v>
+        <v>58948741</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -841,31 +853,31 @@
         <v>13</v>
       </c>
       <c r="B5" s="3">
-        <v>125842974</v>
+        <v>23720297</v>
       </c>
       <c r="C5" s="3">
-        <v>17204756</v>
+        <v>5564820</v>
       </c>
       <c r="D5" s="3">
-        <v>1620000</v>
+        <v>1718846</v>
       </c>
       <c r="E5" s="3">
-        <v>3990746</v>
+        <v>1342789</v>
       </c>
       <c r="F5" s="3">
-        <v>5845070</v>
+        <v>725500</v>
       </c>
       <c r="G5" s="3">
-        <v>9493578</v>
+        <v>5000</v>
       </c>
       <c r="H5" s="3">
-        <v>2711300</v>
+        <v>2420632</v>
       </c>
       <c r="I5" s="3">
-        <v>0</v>
+        <v>12801</v>
       </c>
       <c r="J5" s="3">
-        <v>166708424</v>
+        <v>35510685</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -873,31 +885,31 @@
         <v>14</v>
       </c>
       <c r="B6" s="3">
-        <v>4498688</v>
+        <v>108183452</v>
       </c>
       <c r="C6" s="3">
-        <v>908618</v>
+        <v>1890636</v>
       </c>
       <c r="D6" s="3">
-        <v>98324</v>
+        <v>3336248</v>
       </c>
       <c r="E6" s="3">
-        <v>54750</v>
+        <v>7046293</v>
       </c>
       <c r="F6" s="3">
-        <v>33850</v>
+        <v>1824740</v>
       </c>
       <c r="G6" s="3">
-        <v>27400</v>
+        <v>107000</v>
       </c>
       <c r="H6" s="3">
-        <v>0</v>
+        <v>1742</v>
       </c>
       <c r="I6" s="3">
-        <v>54370</v>
+        <v>1988495</v>
       </c>
       <c r="J6" s="3">
-        <v>5676000</v>
+        <v>124378606</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -905,31 +917,31 @@
         <v>15</v>
       </c>
       <c r="B7" s="3">
-        <v>2955852</v>
+        <v>26819207</v>
       </c>
       <c r="C7" s="3">
-        <v>55271</v>
+        <v>6268228</v>
       </c>
       <c r="D7" s="3">
-        <v>168453</v>
+        <v>1019512</v>
       </c>
       <c r="E7" s="3">
-        <v>663000</v>
+        <v>804787</v>
       </c>
       <c r="F7" s="3">
-        <v>104975</v>
+        <v>430500</v>
       </c>
       <c r="G7" s="3">
         <v>0</v>
       </c>
       <c r="H7" s="3">
-        <v>22400</v>
+        <v>637309</v>
       </c>
       <c r="I7" s="3">
-        <v>129082</v>
+        <v>19712</v>
       </c>
       <c r="J7" s="3">
-        <v>4099033</v>
+        <v>35999255</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -937,31 +949,31 @@
         <v>16</v>
       </c>
       <c r="B8" s="3">
-        <v>5909755</v>
+        <v>143724760</v>
       </c>
       <c r="C8" s="3">
-        <v>1032625</v>
+        <v>3108999</v>
       </c>
       <c r="D8" s="3">
-        <v>187021</v>
+        <v>3175793</v>
       </c>
       <c r="E8" s="3">
-        <v>120846</v>
+        <v>10280883</v>
       </c>
       <c r="F8" s="3">
-        <v>197753</v>
+        <v>3110601</v>
       </c>
       <c r="G8" s="3">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I8" s="3">
-        <v>0</v>
+        <v>171570</v>
       </c>
       <c r="J8" s="3">
-        <v>7454000</v>
+        <v>163572623</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -969,31 +981,31 @@
         <v>17</v>
       </c>
       <c r="B9" s="3">
-        <v>4003564</v>
+        <v>125842974</v>
       </c>
       <c r="C9" s="3">
-        <v>1402560</v>
+        <v>17204756</v>
       </c>
       <c r="D9" s="3">
-        <v>73573</v>
+        <v>1620000</v>
       </c>
       <c r="E9" s="3">
-        <v>230162</v>
+        <v>3990746</v>
       </c>
       <c r="F9" s="3">
-        <v>47382</v>
+        <v>5845070</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>9493578</v>
       </c>
       <c r="H9" s="3">
-        <v>50000</v>
+        <v>2711300</v>
       </c>
       <c r="I9" s="3">
-        <v>34805</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>5842046</v>
+        <v>166708424</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1001,31 +1013,31 @@
         <v>18</v>
       </c>
       <c r="B10" s="3">
-        <v>2883408</v>
+        <v>4498688</v>
       </c>
       <c r="C10" s="3">
-        <v>125423</v>
+        <v>908618</v>
       </c>
       <c r="D10" s="3">
-        <v>213826</v>
+        <v>98324</v>
       </c>
       <c r="E10" s="3">
-        <v>222457</v>
+        <v>54750</v>
       </c>
       <c r="F10" s="3">
-        <v>51548</v>
+        <v>33850</v>
       </c>
       <c r="G10" s="3">
-        <v>4500</v>
+        <v>27400</v>
       </c>
       <c r="H10" s="3">
-        <v>23000</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3">
-        <v>10302</v>
+        <v>54370</v>
       </c>
       <c r="J10" s="3">
-        <v>3534464</v>
+        <v>5676000</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1033,31 +1045,31 @@
         <v>19</v>
       </c>
       <c r="B11" s="3">
-        <v>5240616</v>
+        <v>2955852</v>
       </c>
       <c r="C11" s="3">
-        <v>645014</v>
+        <v>55271</v>
       </c>
       <c r="D11" s="3">
-        <v>314873</v>
+        <v>168453</v>
       </c>
       <c r="E11" s="3">
-        <v>46100</v>
+        <v>663000</v>
       </c>
       <c r="F11" s="3">
-        <v>48880</v>
+        <v>104975</v>
       </c>
       <c r="G11" s="3">
         <v>0</v>
       </c>
       <c r="H11" s="3">
-        <v>0</v>
+        <v>22400</v>
       </c>
       <c r="I11" s="3">
-        <v>55987</v>
+        <v>129082</v>
       </c>
       <c r="J11" s="3">
-        <v>6351470</v>
+        <v>4099033</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1065,31 +1077,31 @@
         <v>20</v>
       </c>
       <c r="B12" s="3">
-        <v>8315976</v>
+        <v>5909755</v>
       </c>
       <c r="C12" s="3">
-        <v>793610</v>
+        <v>1032625</v>
       </c>
       <c r="D12" s="3">
-        <v>777545</v>
+        <v>187021</v>
       </c>
       <c r="E12" s="3">
-        <v>1000185</v>
+        <v>120846</v>
       </c>
       <c r="F12" s="3">
-        <v>127310</v>
+        <v>197753</v>
       </c>
       <c r="G12" s="3">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
       </c>
       <c r="I12" s="3">
-        <v>13312</v>
+        <v>0</v>
       </c>
       <c r="J12" s="3">
-        <v>11027938</v>
+        <v>7454000</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1097,31 +1109,31 @@
         <v>21</v>
       </c>
       <c r="B13" s="3">
-        <v>4798261</v>
+        <v>4003564</v>
       </c>
       <c r="C13" s="3">
-        <v>217469</v>
+        <v>1402560</v>
       </c>
       <c r="D13" s="3">
-        <v>412546</v>
+        <v>73573</v>
       </c>
       <c r="E13" s="3">
-        <v>436988</v>
+        <v>230162</v>
       </c>
       <c r="F13" s="3">
-        <v>312240</v>
+        <v>47382</v>
       </c>
       <c r="G13" s="3">
         <v>0</v>
       </c>
       <c r="H13" s="3">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="I13" s="3">
-        <v>0</v>
+        <v>34805</v>
       </c>
       <c r="J13" s="3">
-        <v>6177504</v>
+        <v>5842046</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1129,31 +1141,31 @@
         <v>22</v>
       </c>
       <c r="B14" s="3">
-        <v>1303484</v>
+        <v>2883408</v>
       </c>
       <c r="C14" s="3">
-        <v>43372</v>
+        <v>125423</v>
       </c>
       <c r="D14" s="3">
-        <v>212020</v>
+        <v>213826</v>
       </c>
       <c r="E14" s="3">
-        <v>82350</v>
+        <v>222457</v>
       </c>
       <c r="F14" s="3">
-        <v>37400</v>
+        <v>51548</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="H14" s="3">
-        <v>40164</v>
+        <v>23000</v>
       </c>
       <c r="I14" s="3">
-        <v>41850</v>
+        <v>10302</v>
       </c>
       <c r="J14" s="3">
-        <v>1760640</v>
+        <v>3534464</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1161,19 +1173,19 @@
         <v>23</v>
       </c>
       <c r="B15" s="3">
-        <v>1529342</v>
+        <v>5240616</v>
       </c>
       <c r="C15" s="3">
-        <v>176117</v>
+        <v>645014</v>
       </c>
       <c r="D15" s="3">
-        <v>234554</v>
+        <v>314873</v>
       </c>
       <c r="E15" s="3">
-        <v>33050</v>
+        <v>46100</v>
       </c>
       <c r="F15" s="3">
-        <v>49800</v>
+        <v>48880</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
@@ -1182,10 +1194,10 @@
         <v>0</v>
       </c>
       <c r="I15" s="3">
-        <v>1107</v>
+        <v>55987</v>
       </c>
       <c r="J15" s="3">
-        <v>2023970</v>
+        <v>6351470</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1193,19 +1205,19 @@
         <v>24</v>
       </c>
       <c r="B16" s="3">
-        <v>1376477</v>
+        <v>8315976</v>
       </c>
       <c r="C16" s="3">
-        <v>34629</v>
+        <v>793610</v>
       </c>
       <c r="D16" s="3">
-        <v>95190</v>
+        <v>777545</v>
       </c>
       <c r="E16" s="3">
-        <v>79500</v>
+        <v>1000185</v>
       </c>
       <c r="F16" s="3">
-        <v>6750</v>
+        <v>127310</v>
       </c>
       <c r="G16" s="3">
         <v>0</v>
@@ -1214,10 +1226,10 @@
         <v>0</v>
       </c>
       <c r="I16" s="3">
-        <v>13546</v>
+        <v>13312</v>
       </c>
       <c r="J16" s="3">
-        <v>1606092</v>
+        <v>11027938</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1225,31 +1237,31 @@
         <v>25</v>
       </c>
       <c r="B17" s="3">
-        <v>14925428</v>
+        <v>4798261</v>
       </c>
       <c r="C17" s="3">
-        <v>574123</v>
+        <v>217469</v>
       </c>
       <c r="D17" s="3">
-        <v>1312006</v>
+        <v>412546</v>
       </c>
       <c r="E17" s="3">
-        <v>773555</v>
+        <v>436988</v>
       </c>
       <c r="F17" s="3">
-        <v>857057</v>
+        <v>312240</v>
       </c>
       <c r="G17" s="3">
-        <v>15600</v>
+        <v>0</v>
       </c>
       <c r="H17" s="3">
-        <v>301044</v>
+        <v>0</v>
       </c>
       <c r="I17" s="3">
-        <v>36263</v>
+        <v>0</v>
       </c>
       <c r="J17" s="3">
-        <v>18795076</v>
+        <v>6177504</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1257,31 +1269,31 @@
         <v>26</v>
       </c>
       <c r="B18" s="3">
-        <v>24180623</v>
+        <v>1303484</v>
       </c>
       <c r="C18" s="3">
-        <v>114304</v>
+        <v>43372</v>
       </c>
       <c r="D18" s="3">
-        <v>47064</v>
+        <v>212020</v>
       </c>
       <c r="E18" s="3">
-        <v>898315</v>
+        <v>82350</v>
       </c>
       <c r="F18" s="3">
-        <v>445702</v>
+        <v>37400</v>
       </c>
       <c r="G18" s="3">
-        <v>28800</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
-        <v>20947</v>
+        <v>40164</v>
       </c>
       <c r="I18" s="3">
-        <v>48939</v>
+        <v>41850</v>
       </c>
       <c r="J18" s="3">
-        <v>25784694</v>
+        <v>1760640</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1289,31 +1301,31 @@
         <v>27</v>
       </c>
       <c r="B19" s="3">
-        <v>1612895</v>
+        <v>1529342</v>
       </c>
       <c r="C19" s="3">
-        <v>87906</v>
+        <v>176117</v>
       </c>
       <c r="D19" s="3">
-        <v>139580</v>
+        <v>234554</v>
       </c>
       <c r="E19" s="3">
-        <v>758084</v>
+        <v>33050</v>
       </c>
       <c r="F19" s="3">
-        <v>98135</v>
+        <v>49800</v>
       </c>
       <c r="G19" s="3">
         <v>0</v>
       </c>
       <c r="H19" s="3">
-        <v>15364</v>
+        <v>0</v>
       </c>
       <c r="I19" s="3">
-        <v>0</v>
+        <v>1107</v>
       </c>
       <c r="J19" s="3">
-        <v>2711964</v>
+        <v>2023970</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1321,19 +1333,19 @@
         <v>28</v>
       </c>
       <c r="B20" s="3">
-        <v>24875683</v>
+        <v>1376477</v>
       </c>
       <c r="C20" s="3">
-        <v>2683203</v>
+        <v>34629</v>
       </c>
       <c r="D20" s="3">
-        <v>577600</v>
+        <v>95190</v>
       </c>
       <c r="E20" s="3">
-        <v>1199531</v>
+        <v>79500</v>
       </c>
       <c r="F20" s="3">
-        <v>632514</v>
+        <v>6750</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1342,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>71495</v>
+        <v>13546</v>
       </c>
       <c r="J20" s="3">
-        <v>30040026</v>
+        <v>1606092</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1353,31 +1365,31 @@
         <v>29</v>
       </c>
       <c r="B21" s="3">
-        <v>16492464</v>
+        <v>14925428</v>
       </c>
       <c r="C21" s="3">
-        <v>128335</v>
+        <v>574123</v>
       </c>
       <c r="D21" s="3">
-        <v>60000</v>
+        <v>1312006</v>
       </c>
       <c r="E21" s="3">
-        <v>422300</v>
+        <v>773555</v>
       </c>
       <c r="F21" s="3">
-        <v>96151</v>
+        <v>857057</v>
       </c>
       <c r="G21" s="3">
-        <v>26500</v>
+        <v>15600</v>
       </c>
       <c r="H21" s="3">
-        <v>1000000</v>
+        <v>301044</v>
       </c>
       <c r="I21" s="3">
-        <v>99250</v>
+        <v>36263</v>
       </c>
       <c r="J21" s="3">
-        <v>18325000</v>
+        <v>18795076</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1385,31 +1397,31 @@
         <v>30</v>
       </c>
       <c r="B22" s="3">
-        <v>10255924</v>
+        <v>24180623</v>
       </c>
       <c r="C22" s="3">
-        <v>67548</v>
+        <v>114304</v>
       </c>
       <c r="D22" s="3">
-        <v>192075</v>
+        <v>47064</v>
       </c>
       <c r="E22" s="3">
-        <v>332400</v>
+        <v>898315</v>
       </c>
       <c r="F22" s="3">
-        <v>447000</v>
+        <v>445702</v>
       </c>
       <c r="G22" s="3">
-        <v>27750</v>
+        <v>28800</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>20947</v>
       </c>
       <c r="I22" s="3">
-        <v>62888</v>
+        <v>48939</v>
       </c>
       <c r="J22" s="3">
-        <v>11385585</v>
+        <v>25784694</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1417,31 +1429,31 @@
         <v>31</v>
       </c>
       <c r="B23" s="3">
-        <v>4144989</v>
+        <v>1612895</v>
       </c>
       <c r="C23" s="3">
-        <v>64748</v>
+        <v>87906</v>
       </c>
       <c r="D23" s="3">
-        <v>127558</v>
+        <v>139580</v>
       </c>
       <c r="E23" s="3">
-        <v>132835</v>
+        <v>758084</v>
       </c>
       <c r="F23" s="3">
-        <v>529080</v>
+        <v>98135</v>
       </c>
       <c r="G23" s="3">
-        <v>99585</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
-        <v>50000</v>
+        <v>15364</v>
       </c>
       <c r="I23" s="3">
-        <v>863</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3">
-        <v>5149658</v>
+        <v>2711964</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1449,31 +1461,31 @@
         <v>32</v>
       </c>
       <c r="B24" s="3">
-        <v>1201898</v>
+        <v>24875683</v>
       </c>
       <c r="C24" s="3">
-        <v>334202</v>
+        <v>2683203</v>
       </c>
       <c r="D24" s="3">
-        <v>161419</v>
+        <v>577600</v>
       </c>
       <c r="E24" s="3">
-        <v>68100</v>
+        <v>1199531</v>
       </c>
       <c r="F24" s="3">
-        <v>96296</v>
+        <v>632514</v>
       </c>
       <c r="G24" s="3">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>28000</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3">
-        <v>0</v>
+        <v>71495</v>
       </c>
       <c r="J24" s="3">
-        <v>1893915</v>
+        <v>30040026</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1481,31 +1493,31 @@
         <v>33</v>
       </c>
       <c r="B25" s="3">
-        <v>1975650</v>
+        <v>16492464</v>
       </c>
       <c r="C25" s="3">
-        <v>438307</v>
+        <v>128335</v>
       </c>
       <c r="D25" s="3">
-        <v>147546</v>
+        <v>60000</v>
       </c>
       <c r="E25" s="3">
-        <v>78920</v>
+        <v>422300</v>
       </c>
       <c r="F25" s="3">
-        <v>98204</v>
+        <v>96151</v>
       </c>
       <c r="G25" s="3">
-        <v>47155</v>
+        <v>26500</v>
       </c>
       <c r="H25" s="3">
-        <v>279972</v>
+        <v>1000000</v>
       </c>
       <c r="I25" s="3">
-        <v>120512</v>
+        <v>99250</v>
       </c>
       <c r="J25" s="3">
-        <v>3186266</v>
+        <v>18325000</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1513,31 +1525,31 @@
         <v>34</v>
       </c>
       <c r="B26" s="3">
-        <v>10585231</v>
+        <v>10255924</v>
       </c>
       <c r="C26" s="3">
-        <v>591983</v>
+        <v>67548</v>
       </c>
       <c r="D26" s="3">
-        <v>392293</v>
+        <v>192075</v>
       </c>
       <c r="E26" s="3">
-        <v>588000</v>
+        <v>332400</v>
       </c>
       <c r="F26" s="3">
-        <v>212000</v>
+        <v>447000</v>
       </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>27750</v>
       </c>
       <c r="H26" s="3">
-        <v>507500</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
-        <v>193228</v>
+        <v>62888</v>
       </c>
       <c r="J26" s="3">
-        <v>13070235</v>
+        <v>11385585</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1545,31 +1557,31 @@
         <v>35</v>
       </c>
       <c r="B27" s="3">
-        <v>3720684</v>
+        <v>4144989</v>
       </c>
       <c r="C27" s="3">
-        <v>449201</v>
+        <v>64748</v>
       </c>
       <c r="D27" s="3">
-        <v>166373</v>
+        <v>127558</v>
       </c>
       <c r="E27" s="3">
-        <v>553770</v>
+        <v>132835</v>
       </c>
       <c r="F27" s="3">
-        <v>33300</v>
+        <v>529080</v>
       </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>99585</v>
       </c>
       <c r="H27" s="3">
-        <v>285000</v>
+        <v>50000</v>
       </c>
       <c r="I27" s="3">
-        <v>10376</v>
+        <v>863</v>
       </c>
       <c r="J27" s="3">
-        <v>5218704</v>
+        <v>5149658</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1577,31 +1589,31 @@
         <v>36</v>
       </c>
       <c r="B28" s="3">
-        <v>1949410</v>
+        <v>1201898</v>
       </c>
       <c r="C28" s="3">
-        <v>128374</v>
+        <v>334202</v>
       </c>
       <c r="D28" s="3">
-        <v>156837</v>
+        <v>161419</v>
       </c>
       <c r="E28" s="3">
+        <v>68100</v>
+      </c>
+      <c r="F28" s="3">
+        <v>96296</v>
+      </c>
+      <c r="G28" s="3">
         <v>4000</v>
       </c>
-      <c r="F28" s="3">
-        <v>29600</v>
-      </c>
-      <c r="G28" s="3">
-        <v>650</v>
-      </c>
       <c r="H28" s="3">
-        <v>0</v>
+        <v>28000</v>
       </c>
       <c r="I28" s="3">
-        <v>97303</v>
+        <v>0</v>
       </c>
       <c r="J28" s="3">
-        <v>2366174</v>
+        <v>1893915</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1609,31 +1621,31 @@
         <v>37</v>
       </c>
       <c r="B29" s="3">
-        <v>5402445</v>
+        <v>1975650</v>
       </c>
       <c r="C29" s="3">
-        <v>1608894</v>
+        <v>438307</v>
       </c>
       <c r="D29" s="3">
-        <v>224617</v>
+        <v>147546</v>
       </c>
       <c r="E29" s="3">
-        <v>736230</v>
+        <v>78920</v>
       </c>
       <c r="F29" s="3">
-        <v>220570</v>
+        <v>98204</v>
       </c>
       <c r="G29" s="3">
-        <v>4200</v>
+        <v>47155</v>
       </c>
       <c r="H29" s="3">
-        <v>923011</v>
+        <v>279972</v>
       </c>
       <c r="I29" s="3">
-        <v>280156</v>
+        <v>120512</v>
       </c>
       <c r="J29" s="3">
-        <v>9400123</v>
+        <v>3186266</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1641,31 +1653,31 @@
         <v>38</v>
       </c>
       <c r="B30" s="3">
-        <v>5418706</v>
+        <v>10585231</v>
       </c>
       <c r="C30" s="3">
-        <v>572827</v>
+        <v>591983</v>
       </c>
       <c r="D30" s="3">
-        <v>471985</v>
+        <v>392293</v>
       </c>
       <c r="E30" s="3">
-        <v>352500</v>
+        <v>588000</v>
       </c>
       <c r="F30" s="3">
-        <v>85750</v>
+        <v>212000</v>
       </c>
       <c r="G30" s="3">
         <v>0</v>
       </c>
       <c r="H30" s="3">
-        <v>376307</v>
+        <v>507500</v>
       </c>
       <c r="I30" s="3">
-        <v>1197</v>
+        <v>193228</v>
       </c>
       <c r="J30" s="3">
-        <v>7279272</v>
+        <v>13070235</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1673,31 +1685,31 @@
         <v>39</v>
       </c>
       <c r="B31" s="3">
-        <v>7472215</v>
+        <v>3720684</v>
       </c>
       <c r="C31" s="3">
-        <v>855370</v>
+        <v>449201</v>
       </c>
       <c r="D31" s="3">
-        <v>641965</v>
+        <v>166373</v>
       </c>
       <c r="E31" s="3">
-        <v>958400</v>
+        <v>553770</v>
       </c>
       <c r="F31" s="3">
-        <v>158300</v>
+        <v>33300</v>
       </c>
       <c r="G31" s="3">
         <v>0</v>
       </c>
       <c r="H31" s="3">
-        <v>114740</v>
+        <v>285000</v>
       </c>
       <c r="I31" s="3">
-        <v>0</v>
+        <v>10376</v>
       </c>
       <c r="J31" s="3">
-        <v>10200990</v>
+        <v>5218704</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1705,31 +1717,31 @@
         <v>40</v>
       </c>
       <c r="B32" s="3">
-        <v>464367</v>
+        <v>1949410</v>
       </c>
       <c r="C32" s="3">
-        <v>4917</v>
+        <v>128374</v>
       </c>
       <c r="D32" s="3">
-        <v>20020</v>
+        <v>156837</v>
       </c>
       <c r="E32" s="3">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="F32" s="3">
-        <v>46100</v>
+        <v>29600</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>35308</v>
+        <v>97303</v>
       </c>
       <c r="J32" s="3">
-        <v>572712</v>
+        <v>2366174</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1737,31 +1749,31 @@
         <v>41</v>
       </c>
       <c r="B33" s="3">
-        <v>123052</v>
+        <v>5402445</v>
       </c>
       <c r="C33" s="3">
-        <v>105851</v>
+        <v>1608894</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>224617</v>
       </c>
       <c r="E33" s="3">
-        <v>200</v>
+        <v>736230</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>220570</v>
       </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>4200</v>
       </c>
       <c r="H33" s="3">
-        <v>0</v>
+        <v>923011</v>
       </c>
       <c r="I33" s="3">
-        <v>30195</v>
+        <v>280156</v>
       </c>
       <c r="J33" s="3">
-        <v>259298</v>
+        <v>9400123</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1769,31 +1781,31 @@
         <v>42</v>
       </c>
       <c r="B34" s="3">
-        <v>3332804</v>
+        <v>5418706</v>
       </c>
       <c r="C34" s="3">
-        <v>290668</v>
+        <v>572827</v>
       </c>
       <c r="D34" s="3">
-        <v>1454</v>
+        <v>471985</v>
       </c>
       <c r="E34" s="3">
-        <v>76000</v>
+        <v>352500</v>
       </c>
       <c r="F34" s="3">
-        <v>164874</v>
+        <v>85750</v>
       </c>
       <c r="G34" s="3">
         <v>0</v>
       </c>
       <c r="H34" s="3">
-        <v>61126</v>
+        <v>376307</v>
       </c>
       <c r="I34" s="3">
-        <v>222</v>
+        <v>1197</v>
       </c>
       <c r="J34" s="3">
-        <v>3927148</v>
+        <v>7279272</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1801,31 +1813,31 @@
         <v>43</v>
       </c>
       <c r="B35" s="3">
-        <v>1460957</v>
+        <v>7472215</v>
       </c>
       <c r="C35" s="3">
-        <v>110900</v>
+        <v>855370</v>
       </c>
       <c r="D35" s="3">
-        <v>161131</v>
+        <v>641965</v>
       </c>
       <c r="E35" s="3">
-        <v>100000</v>
+        <v>958400</v>
       </c>
       <c r="F35" s="3">
-        <v>152322</v>
+        <v>158300</v>
       </c>
       <c r="G35" s="3">
         <v>0</v>
       </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>114740</v>
       </c>
       <c r="I35" s="3">
-        <v>10010</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3">
-        <v>1995320</v>
+        <v>10200990</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1833,31 +1845,31 @@
         <v>44</v>
       </c>
       <c r="B36" s="3">
-        <v>1072552</v>
+        <v>464367</v>
       </c>
       <c r="C36" s="3">
-        <v>164334</v>
+        <v>4917</v>
       </c>
       <c r="D36" s="3">
-        <v>59210</v>
+        <v>20020</v>
       </c>
       <c r="E36" s="3">
-        <v>16500</v>
+        <v>2000</v>
       </c>
       <c r="F36" s="3">
-        <v>15850</v>
+        <v>46100</v>
       </c>
       <c r="G36" s="3">
-        <v>13500</v>
+        <v>0</v>
       </c>
       <c r="H36" s="3">
-        <v>85000</v>
+        <v>0</v>
       </c>
       <c r="I36" s="3">
-        <v>14514</v>
+        <v>35308</v>
       </c>
       <c r="J36" s="3">
-        <v>1441460</v>
+        <v>572712</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1865,31 +1877,31 @@
         <v>45</v>
       </c>
       <c r="B37" s="3">
-        <v>321895</v>
+        <v>123052</v>
       </c>
       <c r="C37" s="3">
-        <v>102239</v>
+        <v>105851</v>
       </c>
       <c r="D37" s="3">
-        <v>37592</v>
+        <v>0</v>
       </c>
       <c r="E37" s="3">
-        <v>9750</v>
+        <v>200</v>
       </c>
       <c r="F37" s="3">
-        <v>40600</v>
+        <v>0</v>
       </c>
       <c r="G37" s="3">
-        <v>6755</v>
+        <v>0</v>
       </c>
       <c r="H37" s="3">
         <v>0</v>
       </c>
       <c r="I37" s="3">
-        <v>0</v>
+        <v>30195</v>
       </c>
       <c r="J37" s="3">
-        <v>518831</v>
+        <v>259298</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1897,31 +1909,31 @@
         <v>46</v>
       </c>
       <c r="B38" s="3">
-        <v>4603552</v>
+        <v>3332804</v>
       </c>
       <c r="C38" s="3">
-        <v>345656</v>
+        <v>290668</v>
       </c>
       <c r="D38" s="3">
-        <v>36380</v>
+        <v>1454</v>
       </c>
       <c r="E38" s="3">
-        <v>87700</v>
+        <v>76000</v>
       </c>
       <c r="F38" s="3">
-        <v>27700</v>
+        <v>164874</v>
       </c>
       <c r="G38" s="3">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="H38" s="3">
-        <v>0</v>
+        <v>61126</v>
       </c>
       <c r="I38" s="3">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="J38" s="3">
-        <v>5105488</v>
+        <v>3927148</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1929,31 +1941,31 @@
         <v>47</v>
       </c>
       <c r="B39" s="3">
-        <v>891948</v>
+        <v>1460957</v>
       </c>
       <c r="C39" s="3">
-        <v>199976</v>
+        <v>110900</v>
       </c>
       <c r="D39" s="3">
-        <v>143619</v>
+        <v>161131</v>
       </c>
       <c r="E39" s="3">
-        <v>82120</v>
+        <v>100000</v>
       </c>
       <c r="F39" s="3">
-        <v>43700</v>
+        <v>152322</v>
       </c>
       <c r="G39" s="3">
         <v>0</v>
       </c>
       <c r="H39" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" s="3">
-        <v>23474</v>
+        <v>10010</v>
       </c>
       <c r="J39" s="3">
-        <v>1384838</v>
+        <v>1995320</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1961,31 +1973,31 @@
         <v>48</v>
       </c>
       <c r="B40" s="3">
-        <v>932916</v>
+        <v>1072552</v>
       </c>
       <c r="C40" s="3">
-        <v>270935</v>
+        <v>164334</v>
       </c>
       <c r="D40" s="3">
-        <v>147396</v>
+        <v>59210</v>
       </c>
       <c r="E40" s="3">
-        <v>112700</v>
+        <v>16500</v>
       </c>
       <c r="F40" s="3">
-        <v>14000</v>
+        <v>15850</v>
       </c>
       <c r="G40" s="3">
-        <v>8600</v>
+        <v>13500</v>
       </c>
       <c r="H40" s="3">
-        <v>5000</v>
+        <v>85000</v>
       </c>
       <c r="I40" s="3">
-        <v>0</v>
+        <v>14514</v>
       </c>
       <c r="J40" s="3">
-        <v>1491547</v>
+        <v>1441460</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1993,22 +2005,22 @@
         <v>49</v>
       </c>
       <c r="B41" s="3">
-        <v>700122</v>
+        <v>321895</v>
       </c>
       <c r="C41" s="3">
-        <v>208772</v>
+        <v>102239</v>
       </c>
       <c r="D41" s="3">
-        <v>212364</v>
+        <v>37592</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>9750</v>
       </c>
       <c r="F41" s="3">
-        <v>10500</v>
+        <v>40600</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>6755</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
@@ -2017,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>1131758</v>
+        <v>518831</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2025,31 +2037,31 @@
         <v>50</v>
       </c>
       <c r="B42" s="3">
-        <v>1029235</v>
+        <v>4603552</v>
       </c>
       <c r="C42" s="3">
-        <v>752</v>
+        <v>345656</v>
       </c>
       <c r="D42" s="3">
-        <v>10911</v>
+        <v>36380</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
+        <v>87700</v>
       </c>
       <c r="F42" s="3">
-        <v>9328</v>
+        <v>27700</v>
       </c>
       <c r="G42" s="3">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
       </c>
       <c r="I42" s="3">
-        <v>29898</v>
+        <v>0</v>
       </c>
       <c r="J42" s="3">
-        <v>1080124</v>
+        <v>5105488</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2057,31 +2069,31 @@
         <v>51</v>
       </c>
       <c r="B43" s="3">
-        <v>195287</v>
+        <v>891948</v>
       </c>
       <c r="C43" s="3">
-        <v>96202</v>
+        <v>199976</v>
       </c>
       <c r="D43" s="3">
-        <v>66066</v>
+        <v>143619</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>82120</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>43700</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" s="3">
-        <v>798</v>
+        <v>23474</v>
       </c>
       <c r="J43" s="3">
-        <v>358353</v>
+        <v>1384838</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2089,31 +2101,31 @@
         <v>52</v>
       </c>
       <c r="B44" s="3">
-        <v>2817898</v>
+        <v>932916</v>
       </c>
       <c r="C44" s="3">
-        <v>200933</v>
+        <v>270935</v>
       </c>
       <c r="D44" s="3">
-        <v>100706</v>
+        <v>147396</v>
       </c>
       <c r="E44" s="3">
-        <v>429750</v>
+        <v>112700</v>
       </c>
       <c r="F44" s="3">
-        <v>46750</v>
+        <v>14000</v>
       </c>
       <c r="G44" s="3">
-        <v>0</v>
+        <v>8600</v>
       </c>
       <c r="H44" s="3">
-        <v>132600</v>
+        <v>5000</v>
       </c>
       <c r="I44" s="3">
         <v>0</v>
       </c>
       <c r="J44" s="3">
-        <v>3728637</v>
+        <v>1491547</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2121,19 +2133,19 @@
         <v>53</v>
       </c>
       <c r="B45" s="3">
-        <v>520618</v>
+        <v>700122</v>
       </c>
       <c r="C45" s="3">
-        <v>34800</v>
+        <v>208772</v>
       </c>
       <c r="D45" s="3">
-        <v>97698</v>
+        <v>212364</v>
       </c>
       <c r="E45" s="3">
-        <v>14000</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>4000</v>
+        <v>10500</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -2142,10 +2154,10 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>64100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>735216</v>
+        <v>1131758</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2153,31 +2165,31 @@
         <v>54</v>
       </c>
       <c r="B46" s="3">
-        <v>1277895</v>
+        <v>1029235</v>
       </c>
       <c r="C46" s="3">
-        <v>98132</v>
+        <v>752</v>
       </c>
       <c r="D46" s="3">
-        <v>138171</v>
+        <v>10911</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
       </c>
       <c r="F46" s="3">
-        <v>47950</v>
+        <v>9328</v>
       </c>
       <c r="G46" s="3">
         <v>0</v>
       </c>
       <c r="H46" s="3">
-        <v>5177</v>
+        <v>0</v>
       </c>
       <c r="I46" s="3">
-        <v>17871</v>
+        <v>29898</v>
       </c>
       <c r="J46" s="3">
-        <v>1585196</v>
+        <v>1080124</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2185,19 +2197,19 @@
         <v>55</v>
       </c>
       <c r="B47" s="3">
-        <v>963249</v>
+        <v>195287</v>
       </c>
       <c r="C47" s="3">
-        <v>334810</v>
+        <v>96202</v>
       </c>
       <c r="D47" s="3">
-        <v>143147</v>
+        <v>66066</v>
       </c>
       <c r="E47" s="3">
-        <v>24000</v>
+        <v>0</v>
       </c>
       <c r="F47" s="3">
-        <v>50911</v>
+        <v>0</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
@@ -2206,10 +2218,10 @@
         <v>0</v>
       </c>
       <c r="I47" s="3">
-        <v>59217</v>
+        <v>798</v>
       </c>
       <c r="J47" s="3">
-        <v>1575334</v>
+        <v>358353</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2217,31 +2229,31 @@
         <v>56</v>
       </c>
       <c r="B48" s="3">
-        <v>881673</v>
+        <v>2817898</v>
       </c>
       <c r="C48" s="3">
-        <v>219992</v>
+        <v>200933</v>
       </c>
       <c r="D48" s="3">
-        <v>35642</v>
+        <v>100706</v>
       </c>
       <c r="E48" s="3">
-        <v>67700</v>
+        <v>429750</v>
       </c>
       <c r="F48" s="3">
-        <v>17396</v>
+        <v>46750</v>
       </c>
       <c r="G48" s="3">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="H48" s="3">
-        <v>25000</v>
+        <v>132600</v>
       </c>
       <c r="I48" s="3">
         <v>0</v>
       </c>
       <c r="J48" s="3">
-        <v>1248903</v>
+        <v>3728637</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -2249,31 +2261,31 @@
         <v>57</v>
       </c>
       <c r="B49" s="3">
-        <v>939646</v>
+        <v>520618</v>
       </c>
       <c r="C49" s="3">
-        <v>91371</v>
+        <v>34800</v>
       </c>
       <c r="D49" s="3">
-        <v>65984</v>
+        <v>97698</v>
       </c>
       <c r="E49" s="3">
-        <v>0</v>
+        <v>14000</v>
       </c>
       <c r="F49" s="3">
-        <v>7975</v>
+        <v>4000</v>
       </c>
       <c r="G49" s="3">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="H49" s="3">
-        <v>43011</v>
+        <v>0</v>
       </c>
       <c r="I49" s="3">
-        <v>179134</v>
+        <v>64100</v>
       </c>
       <c r="J49" s="3">
-        <v>1333121</v>
+        <v>735216</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -2281,31 +2293,31 @@
         <v>58</v>
       </c>
       <c r="B50" s="3">
-        <v>702250</v>
+        <v>1277895</v>
       </c>
       <c r="C50" s="3">
-        <v>4417</v>
+        <v>98132</v>
       </c>
       <c r="D50" s="3">
-        <v>150370</v>
+        <v>138171</v>
       </c>
       <c r="E50" s="3">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="F50" s="3">
-        <v>6036</v>
+        <v>47950</v>
       </c>
       <c r="G50" s="3">
         <v>0</v>
       </c>
       <c r="H50" s="3">
-        <v>0</v>
+        <v>5177</v>
       </c>
       <c r="I50" s="3">
-        <v>1322</v>
+        <v>17871</v>
       </c>
       <c r="J50" s="3">
-        <v>870395</v>
+        <v>1585196</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2313,31 +2325,31 @@
         <v>59</v>
       </c>
       <c r="B51" s="3">
-        <v>1072353</v>
+        <v>963249</v>
       </c>
       <c r="C51" s="3">
-        <v>394022</v>
+        <v>334810</v>
       </c>
       <c r="D51" s="3">
-        <v>87495</v>
+        <v>143147</v>
       </c>
       <c r="E51" s="3">
-        <v>0</v>
+        <v>24000</v>
       </c>
       <c r="F51" s="3">
-        <v>9091</v>
+        <v>50911</v>
       </c>
       <c r="G51" s="3">
         <v>0</v>
       </c>
       <c r="H51" s="3">
-        <v>9299</v>
+        <v>0</v>
       </c>
       <c r="I51" s="3">
-        <v>10025</v>
+        <v>59217</v>
       </c>
       <c r="J51" s="3">
-        <v>1582285</v>
+        <v>1575334</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2345,31 +2357,31 @@
         <v>60</v>
       </c>
       <c r="B52" s="3">
-        <v>564416</v>
+        <v>881673</v>
       </c>
       <c r="C52" s="3">
-        <v>73409</v>
+        <v>219992</v>
       </c>
       <c r="D52" s="3">
-        <v>209938</v>
+        <v>35642</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
+        <v>67700</v>
       </c>
       <c r="F52" s="3">
-        <v>48095</v>
+        <v>17396</v>
       </c>
       <c r="G52" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="H52" s="3">
-        <v>34814</v>
+        <v>25000</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
       </c>
       <c r="J52" s="3">
-        <v>930672</v>
+        <v>1248903</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2377,31 +2389,31 @@
         <v>61</v>
       </c>
       <c r="B53" s="3">
-        <v>909482</v>
+        <v>939646</v>
       </c>
       <c r="C53" s="3">
-        <v>2438</v>
+        <v>91371</v>
       </c>
       <c r="D53" s="3">
-        <v>46520</v>
+        <v>65984</v>
       </c>
       <c r="E53" s="3">
         <v>0</v>
       </c>
       <c r="F53" s="3">
-        <v>12400</v>
+        <v>7975</v>
       </c>
       <c r="G53" s="3">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="H53" s="3">
-        <v>50000</v>
+        <v>43011</v>
       </c>
       <c r="I53" s="3">
-        <v>60588</v>
+        <v>179134</v>
       </c>
       <c r="J53" s="3">
-        <v>1081428</v>
+        <v>1333121</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2409,31 +2421,31 @@
         <v>62</v>
       </c>
       <c r="B54" s="3">
-        <v>2581194</v>
+        <v>702250</v>
       </c>
       <c r="C54" s="3">
-        <v>275402</v>
+        <v>4417</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>150370</v>
       </c>
       <c r="E54" s="3">
-        <v>46550</v>
+        <v>6000</v>
       </c>
       <c r="F54" s="3">
-        <v>15125</v>
+        <v>6036</v>
       </c>
       <c r="G54" s="3">
-        <v>22000</v>
+        <v>0</v>
       </c>
       <c r="H54" s="3">
         <v>0</v>
       </c>
       <c r="I54" s="3">
-        <v>46548</v>
+        <v>1322</v>
       </c>
       <c r="J54" s="3">
-        <v>2986819</v>
+        <v>870395</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2441,31 +2453,31 @@
         <v>63</v>
       </c>
       <c r="B55" s="3">
-        <v>552864</v>
+        <v>1072353</v>
       </c>
       <c r="C55" s="3">
-        <v>445807</v>
+        <v>394022</v>
       </c>
       <c r="D55" s="3">
-        <v>178898</v>
+        <v>87495</v>
       </c>
       <c r="E55" s="3">
-        <v>5982</v>
+        <v>0</v>
       </c>
       <c r="F55" s="3">
-        <v>6930</v>
+        <v>9091</v>
       </c>
       <c r="G55" s="3">
         <v>0</v>
       </c>
       <c r="H55" s="3">
-        <v>2900</v>
+        <v>9299</v>
       </c>
       <c r="I55" s="3">
-        <v>2048</v>
+        <v>10025</v>
       </c>
       <c r="J55" s="3">
-        <v>1195429</v>
+        <v>1582285</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2473,31 +2485,31 @@
         <v>64</v>
       </c>
       <c r="B56" s="3">
-        <v>274358</v>
+        <v>564416</v>
       </c>
       <c r="C56" s="3">
-        <v>42490</v>
+        <v>73409</v>
       </c>
       <c r="D56" s="3">
-        <v>34857</v>
+        <v>209938</v>
       </c>
       <c r="E56" s="3">
         <v>0</v>
       </c>
       <c r="F56" s="3">
-        <v>13410</v>
+        <v>48095</v>
       </c>
       <c r="G56" s="3">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="H56" s="3">
-        <v>0</v>
+        <v>34814</v>
       </c>
       <c r="I56" s="3">
-        <v>23090</v>
+        <v>0</v>
       </c>
       <c r="J56" s="3">
-        <v>389955</v>
+        <v>930672</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2505,31 +2517,31 @@
         <v>65</v>
       </c>
       <c r="B57" s="3">
-        <v>1164914</v>
+        <v>909482</v>
       </c>
       <c r="C57" s="3">
-        <v>259194</v>
+        <v>2438</v>
       </c>
       <c r="D57" s="3">
-        <v>94631</v>
+        <v>46520</v>
       </c>
       <c r="E57" s="3">
-        <v>102500</v>
+        <v>0</v>
       </c>
       <c r="F57" s="3">
-        <v>3200</v>
+        <v>12400</v>
       </c>
       <c r="G57" s="3">
         <v>0</v>
       </c>
       <c r="H57" s="3">
-        <v>114658</v>
+        <v>50000</v>
       </c>
       <c r="I57" s="3">
-        <v>76823</v>
+        <v>60588</v>
       </c>
       <c r="J57" s="3">
-        <v>1815920</v>
+        <v>1081428</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2537,31 +2549,31 @@
         <v>66</v>
       </c>
       <c r="B58" s="3">
-        <v>720312</v>
+        <v>2581194</v>
       </c>
       <c r="C58" s="3">
-        <v>1012</v>
+        <v>275402</v>
       </c>
       <c r="D58" s="3">
-        <v>32000</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>46550</v>
       </c>
       <c r="F58" s="3">
-        <v>30500</v>
+        <v>15125</v>
       </c>
       <c r="G58" s="3">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>7989</v>
+        <v>46548</v>
       </c>
       <c r="J58" s="3">
-        <v>806813</v>
+        <v>2986819</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2569,31 +2581,31 @@
         <v>67</v>
       </c>
       <c r="B59" s="3">
-        <v>430865</v>
+        <v>552864</v>
       </c>
       <c r="C59" s="3">
-        <v>239999</v>
+        <v>445807</v>
       </c>
       <c r="D59" s="3">
-        <v>11577</v>
+        <v>178898</v>
       </c>
       <c r="E59" s="3">
-        <v>300</v>
+        <v>5982</v>
       </c>
       <c r="F59" s="3">
-        <v>24900</v>
+        <v>6930</v>
       </c>
       <c r="G59" s="3">
         <v>0</v>
       </c>
       <c r="H59" s="3">
-        <v>0</v>
+        <v>2900</v>
       </c>
       <c r="I59" s="3">
-        <v>7032</v>
+        <v>2048</v>
       </c>
       <c r="J59" s="3">
-        <v>714673</v>
+        <v>1195429</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2601,31 +2613,31 @@
         <v>68</v>
       </c>
       <c r="B60" s="3">
-        <v>393333</v>
+        <v>274358</v>
       </c>
       <c r="C60" s="3">
-        <v>70424</v>
+        <v>42490</v>
       </c>
       <c r="D60" s="3">
-        <v>14099</v>
+        <v>34857</v>
       </c>
       <c r="E60" s="3">
-        <v>9700</v>
+        <v>0</v>
       </c>
       <c r="F60" s="3">
-        <v>3400</v>
+        <v>13410</v>
       </c>
       <c r="G60" s="3">
-        <v>1706</v>
+        <v>1750</v>
       </c>
       <c r="H60" s="3">
         <v>0</v>
       </c>
       <c r="I60" s="3">
-        <v>9507</v>
+        <v>23090</v>
       </c>
       <c r="J60" s="3">
-        <v>502169</v>
+        <v>389955</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -2633,31 +2645,31 @@
         <v>69</v>
       </c>
       <c r="B61" s="3">
-        <v>805978</v>
+        <v>1164914</v>
       </c>
       <c r="C61" s="3">
-        <v>545795</v>
+        <v>259194</v>
       </c>
       <c r="D61" s="3">
-        <v>15258</v>
+        <v>94631</v>
       </c>
       <c r="E61" s="3">
-        <v>12000</v>
+        <v>102500</v>
       </c>
       <c r="F61" s="3">
-        <v>36500</v>
+        <v>3200</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>114658</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>76823</v>
       </c>
       <c r="J61" s="3">
-        <v>1415531</v>
+        <v>1815920</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2665,31 +2677,31 @@
         <v>70</v>
       </c>
       <c r="B62" s="3">
-        <v>194359</v>
+        <v>720312</v>
       </c>
       <c r="C62" s="3">
-        <v>22383</v>
+        <v>1012</v>
       </c>
       <c r="D62" s="3">
-        <v>110598</v>
+        <v>32000</v>
       </c>
       <c r="E62" s="3">
-        <v>6600</v>
+        <v>0</v>
       </c>
       <c r="F62" s="3">
-        <v>12428</v>
+        <v>30500</v>
       </c>
       <c r="G62" s="3">
-        <v>1575</v>
+        <v>15000</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
       </c>
       <c r="I62" s="3">
-        <v>0</v>
+        <v>7989</v>
       </c>
       <c r="J62" s="3">
-        <v>347943</v>
+        <v>806813</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2697,31 +2709,31 @@
         <v>71</v>
       </c>
       <c r="B63" s="3">
-        <v>4520689</v>
+        <v>430865</v>
       </c>
       <c r="C63" s="3">
-        <v>1155800</v>
+        <v>239999</v>
       </c>
       <c r="D63" s="3">
-        <v>71211</v>
+        <v>11577</v>
       </c>
       <c r="E63" s="3">
-        <v>841927</v>
+        <v>300</v>
       </c>
       <c r="F63" s="3">
-        <v>61875</v>
+        <v>24900</v>
       </c>
       <c r="G63" s="3">
-        <v>4888</v>
+        <v>0</v>
       </c>
       <c r="H63" s="3">
-        <v>221285</v>
+        <v>0</v>
       </c>
       <c r="I63" s="3">
-        <v>135349</v>
+        <v>7032</v>
       </c>
       <c r="J63" s="3">
-        <v>7013024</v>
+        <v>714673</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2729,31 +2741,31 @@
         <v>72</v>
       </c>
       <c r="B64" s="3">
-        <v>144078</v>
+        <v>393333</v>
       </c>
       <c r="C64" s="3">
-        <v>84603</v>
+        <v>70424</v>
       </c>
       <c r="D64" s="3">
-        <v>0</v>
+        <v>14099</v>
       </c>
       <c r="E64" s="3">
-        <v>300</v>
+        <v>9700</v>
       </c>
       <c r="F64" s="3">
-        <v>35150</v>
+        <v>3400</v>
       </c>
       <c r="G64" s="3">
-        <v>0</v>
+        <v>1706</v>
       </c>
       <c r="H64" s="3">
         <v>0</v>
       </c>
       <c r="I64" s="3">
-        <v>34887</v>
+        <v>9507</v>
       </c>
       <c r="J64" s="3">
-        <v>299018</v>
+        <v>502169</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -2761,19 +2773,19 @@
         <v>73</v>
       </c>
       <c r="B65" s="3">
-        <v>1403168</v>
+        <v>805978</v>
       </c>
       <c r="C65" s="3">
-        <v>976038</v>
+        <v>545795</v>
       </c>
       <c r="D65" s="3">
-        <v>267439</v>
+        <v>15258</v>
       </c>
       <c r="E65" s="3">
-        <v>35000</v>
+        <v>12000</v>
       </c>
       <c r="F65" s="3">
-        <v>44523</v>
+        <v>36500</v>
       </c>
       <c r="G65" s="3">
         <v>0</v>
@@ -2785,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="J65" s="3">
-        <v>2726168</v>
+        <v>1415531</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -2793,31 +2805,31 @@
         <v>74</v>
       </c>
       <c r="B66" s="3">
-        <v>1818370</v>
+        <v>194359</v>
       </c>
       <c r="C66" s="3">
-        <v>291915</v>
+        <v>22383</v>
       </c>
       <c r="D66" s="3">
-        <v>183600</v>
+        <v>110598</v>
       </c>
       <c r="E66" s="3">
-        <v>4400</v>
+        <v>6600</v>
       </c>
       <c r="F66" s="3">
-        <v>148147</v>
+        <v>12428</v>
       </c>
       <c r="G66" s="3">
-        <v>0</v>
+        <v>1575</v>
       </c>
       <c r="H66" s="3">
-        <v>44110</v>
+        <v>0</v>
       </c>
       <c r="I66" s="3">
-        <v>51463</v>
+        <v>0</v>
       </c>
       <c r="J66" s="3">
-        <v>2542005</v>
+        <v>347943</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -2825,31 +2837,31 @@
         <v>75</v>
       </c>
       <c r="B67" s="3">
-        <v>4598492</v>
+        <v>4520689</v>
       </c>
       <c r="C67" s="3">
-        <v>6235</v>
+        <v>1155800</v>
       </c>
       <c r="D67" s="3">
-        <v>140302</v>
+        <v>71211</v>
       </c>
       <c r="E67" s="3">
-        <v>112500</v>
+        <v>841927</v>
       </c>
       <c r="F67" s="3">
-        <v>55800</v>
+        <v>61875</v>
       </c>
       <c r="G67" s="3">
-        <v>0</v>
+        <v>4888</v>
       </c>
       <c r="H67" s="3">
-        <v>25000</v>
+        <v>221285</v>
       </c>
       <c r="I67" s="3">
-        <v>59</v>
+        <v>135349</v>
       </c>
       <c r="J67" s="3">
-        <v>4938388</v>
+        <v>7013024</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -2857,31 +2869,31 @@
         <v>76</v>
       </c>
       <c r="B68" s="3">
-        <v>768592</v>
+        <v>144078</v>
       </c>
       <c r="C68" s="3">
-        <v>115381</v>
+        <v>84603</v>
       </c>
       <c r="D68" s="3">
-        <v>35439</v>
+        <v>0</v>
       </c>
       <c r="E68" s="3">
-        <v>16800</v>
+        <v>300</v>
       </c>
       <c r="F68" s="3">
-        <v>16050</v>
+        <v>35150</v>
       </c>
       <c r="G68" s="3">
         <v>0</v>
       </c>
       <c r="H68" s="3">
-        <v>17000</v>
+        <v>0</v>
       </c>
       <c r="I68" s="3">
-        <v>17000</v>
+        <v>34887</v>
       </c>
       <c r="J68" s="3">
-        <v>986262</v>
+        <v>299018</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -2889,31 +2901,31 @@
         <v>77</v>
       </c>
       <c r="B69" s="3">
-        <v>913161</v>
+        <v>1403168</v>
       </c>
       <c r="C69" s="3">
-        <v>237290</v>
+        <v>976038</v>
       </c>
       <c r="D69" s="3">
-        <v>272710</v>
+        <v>267439</v>
       </c>
       <c r="E69" s="3">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="F69" s="3">
-        <v>31600</v>
+        <v>44523</v>
       </c>
       <c r="G69" s="3">
         <v>0</v>
       </c>
       <c r="H69" s="3">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="I69" s="3">
-        <v>387</v>
+        <v>0</v>
       </c>
       <c r="J69" s="3">
-        <v>1465148</v>
+        <v>2726168</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -2921,31 +2933,31 @@
         <v>78</v>
       </c>
       <c r="B70" s="3">
-        <v>734831</v>
+        <v>1818370</v>
       </c>
       <c r="C70" s="3">
-        <v>9015</v>
+        <v>291915</v>
       </c>
       <c r="D70" s="3">
-        <v>129717</v>
+        <v>183600</v>
       </c>
       <c r="E70" s="3">
-        <v>0</v>
+        <v>4400</v>
       </c>
       <c r="F70" s="3">
-        <v>118850</v>
+        <v>148147</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>44110</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>51463</v>
       </c>
       <c r="J70" s="3">
-        <v>992413</v>
+        <v>2542005</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -2953,31 +2965,31 @@
         <v>79</v>
       </c>
       <c r="B71" s="3">
-        <v>1476035</v>
+        <v>4598492</v>
       </c>
       <c r="C71" s="3">
-        <v>275489</v>
+        <v>6235</v>
       </c>
       <c r="D71" s="3">
-        <v>231344</v>
+        <v>140302</v>
       </c>
       <c r="E71" s="3">
-        <v>244964</v>
+        <v>112500</v>
       </c>
       <c r="F71" s="3">
-        <v>20680</v>
+        <v>55800</v>
       </c>
       <c r="G71" s="3">
         <v>0</v>
       </c>
       <c r="H71" s="3">
-        <v>110451</v>
+        <v>25000</v>
       </c>
       <c r="I71" s="3">
-        <v>114476</v>
+        <v>59</v>
       </c>
       <c r="J71" s="3">
-        <v>2473439</v>
+        <v>4938388</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -2985,31 +2997,31 @@
         <v>80</v>
       </c>
       <c r="B72" s="3">
-        <v>1626046</v>
+        <v>768592</v>
       </c>
       <c r="C72" s="3">
-        <v>483549</v>
+        <v>115381</v>
       </c>
       <c r="D72" s="3">
-        <v>105616</v>
+        <v>35439</v>
       </c>
       <c r="E72" s="3">
-        <v>142511</v>
+        <v>16800</v>
       </c>
       <c r="F72" s="3">
-        <v>15472</v>
+        <v>16050</v>
       </c>
       <c r="G72" s="3">
-        <v>2824</v>
+        <v>0</v>
       </c>
       <c r="H72" s="3">
-        <v>7152</v>
+        <v>17000</v>
       </c>
       <c r="I72" s="3">
-        <v>30427</v>
+        <v>17000</v>
       </c>
       <c r="J72" s="3">
-        <v>2413597</v>
+        <v>986262</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -3017,31 +3029,31 @@
         <v>81</v>
       </c>
       <c r="B73" s="3">
-        <v>1192350</v>
+        <v>913161</v>
       </c>
       <c r="C73" s="3">
-        <v>339215</v>
+        <v>237290</v>
       </c>
       <c r="D73" s="3">
-        <v>191593</v>
+        <v>272710</v>
       </c>
       <c r="E73" s="3">
-        <v>176000</v>
+        <v>0</v>
       </c>
       <c r="F73" s="3">
-        <v>51000</v>
+        <v>31600</v>
       </c>
       <c r="G73" s="3">
         <v>0</v>
       </c>
       <c r="H73" s="3">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="I73" s="3">
-        <v>109622</v>
+        <v>387</v>
       </c>
       <c r="J73" s="3">
-        <v>2059780</v>
+        <v>1465148</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -3049,19 +3061,19 @@
         <v>82</v>
       </c>
       <c r="B74" s="3">
-        <v>1090358</v>
+        <v>734831</v>
       </c>
       <c r="C74" s="3">
-        <v>314018</v>
+        <v>9015</v>
       </c>
       <c r="D74" s="3">
-        <v>132231</v>
+        <v>129717</v>
       </c>
       <c r="E74" s="3">
-        <v>60600</v>
+        <v>0</v>
       </c>
       <c r="F74" s="3">
-        <v>23000</v>
+        <v>118850</v>
       </c>
       <c r="G74" s="3">
         <v>0</v>
@@ -3070,10 +3082,10 @@
         <v>0</v>
       </c>
       <c r="I74" s="3">
-        <v>33742</v>
+        <v>0</v>
       </c>
       <c r="J74" s="3">
-        <v>1653949</v>
+        <v>992413</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -3081,31 +3093,31 @@
         <v>83</v>
       </c>
       <c r="B75" s="3">
-        <v>700961</v>
+        <v>1476035</v>
       </c>
       <c r="C75" s="3">
-        <v>164947</v>
+        <v>275489</v>
       </c>
       <c r="D75" s="3">
-        <v>58243</v>
+        <v>231344</v>
       </c>
       <c r="E75" s="3">
-        <v>23280</v>
+        <v>244964</v>
       </c>
       <c r="F75" s="3">
-        <v>7720</v>
+        <v>20680</v>
       </c>
       <c r="G75" s="3">
         <v>0</v>
       </c>
       <c r="H75" s="3">
-        <v>47771</v>
+        <v>110451</v>
       </c>
       <c r="I75" s="3">
-        <v>21000</v>
+        <v>114476</v>
       </c>
       <c r="J75" s="3">
-        <v>1023922</v>
+        <v>2473439</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -3113,31 +3125,31 @@
         <v>84</v>
       </c>
       <c r="B76" s="3">
-        <v>366842</v>
+        <v>1626046</v>
       </c>
       <c r="C76" s="3">
-        <v>36715</v>
+        <v>483549</v>
       </c>
       <c r="D76" s="3">
-        <v>157649</v>
+        <v>105616</v>
       </c>
       <c r="E76" s="3">
-        <v>3296</v>
+        <v>142511</v>
       </c>
       <c r="F76" s="3">
-        <v>26460</v>
+        <v>15472</v>
       </c>
       <c r="G76" s="3">
-        <v>3296</v>
+        <v>2824</v>
       </c>
       <c r="H76" s="3">
-        <v>0</v>
+        <v>7152</v>
       </c>
       <c r="I76" s="3">
-        <v>34734</v>
+        <v>30427</v>
       </c>
       <c r="J76" s="3">
-        <v>628992</v>
+        <v>2413597</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -3145,31 +3157,31 @@
         <v>85</v>
       </c>
       <c r="B77" s="3">
-        <v>1170119</v>
+        <v>1192350</v>
       </c>
       <c r="C77" s="3">
-        <v>7880</v>
+        <v>339215</v>
       </c>
       <c r="D77" s="3">
-        <v>192429</v>
+        <v>191593</v>
       </c>
       <c r="E77" s="3">
-        <v>0</v>
+        <v>176000</v>
       </c>
       <c r="F77" s="3">
-        <v>82586</v>
+        <v>51000</v>
       </c>
       <c r="G77" s="3">
-        <v>55000</v>
+        <v>0</v>
       </c>
       <c r="H77" s="3">
         <v>0</v>
       </c>
       <c r="I77" s="3">
-        <v>0</v>
+        <v>109622</v>
       </c>
       <c r="J77" s="3">
-        <v>1508014</v>
+        <v>2059780</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -3177,31 +3189,31 @@
         <v>86</v>
       </c>
       <c r="B78" s="3">
-        <v>324837</v>
+        <v>1090358</v>
       </c>
       <c r="C78" s="3">
-        <v>20426</v>
+        <v>314018</v>
       </c>
       <c r="D78" s="3">
-        <v>118825</v>
+        <v>132231</v>
       </c>
       <c r="E78" s="3">
-        <v>15000</v>
+        <v>60600</v>
       </c>
       <c r="F78" s="3">
-        <v>800</v>
+        <v>23000</v>
       </c>
       <c r="G78" s="3">
         <v>0</v>
       </c>
       <c r="H78" s="3">
-        <v>48115</v>
+        <v>0</v>
       </c>
       <c r="I78" s="3">
-        <v>12123</v>
+        <v>33742</v>
       </c>
       <c r="J78" s="3">
-        <v>540126</v>
+        <v>1653949</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -3209,31 +3221,31 @@
         <v>87</v>
       </c>
       <c r="B79" s="3">
-        <v>549720</v>
+        <v>700961</v>
       </c>
       <c r="C79" s="3">
-        <v>95047</v>
+        <v>164947</v>
       </c>
       <c r="D79" s="3">
-        <v>30403</v>
+        <v>58243</v>
       </c>
       <c r="E79" s="3">
-        <v>22000</v>
+        <v>23280</v>
       </c>
       <c r="F79" s="3">
-        <v>3500</v>
+        <v>7720</v>
       </c>
       <c r="G79" s="3">
         <v>0</v>
       </c>
       <c r="H79" s="3">
-        <v>0</v>
+        <v>47771</v>
       </c>
       <c r="I79" s="3">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="J79" s="3">
-        <v>700670</v>
+        <v>1023922</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -3241,31 +3253,31 @@
         <v>88</v>
       </c>
       <c r="B80" s="3">
-        <v>863902</v>
+        <v>366842</v>
       </c>
       <c r="C80" s="3">
-        <v>444041</v>
+        <v>36715</v>
       </c>
       <c r="D80" s="3">
-        <v>179059</v>
+        <v>157649</v>
       </c>
       <c r="E80" s="3">
-        <v>0</v>
+        <v>3296</v>
       </c>
       <c r="F80" s="3">
-        <v>48527</v>
+        <v>26460</v>
       </c>
       <c r="G80" s="3">
-        <v>0</v>
+        <v>3296</v>
       </c>
       <c r="H80" s="3">
         <v>0</v>
       </c>
       <c r="I80" s="3">
-        <v>5328</v>
+        <v>34734</v>
       </c>
       <c r="J80" s="3">
-        <v>1540857</v>
+        <v>628992</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -3273,31 +3285,31 @@
         <v>89</v>
       </c>
       <c r="B81" s="3">
-        <v>1488961</v>
+        <v>1170119</v>
       </c>
       <c r="C81" s="3">
-        <v>329914</v>
+        <v>7880</v>
       </c>
       <c r="D81" s="3">
-        <v>162486</v>
+        <v>192429</v>
       </c>
       <c r="E81" s="3">
-        <v>25500</v>
+        <v>0</v>
       </c>
       <c r="F81" s="3">
-        <v>20451</v>
+        <v>82586</v>
       </c>
       <c r="G81" s="3">
-        <v>0</v>
+        <v>55000</v>
       </c>
       <c r="H81" s="3">
         <v>0</v>
       </c>
       <c r="I81" s="3">
-        <v>8028</v>
+        <v>0</v>
       </c>
       <c r="J81" s="3">
-        <v>2035340</v>
+        <v>1508014</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -3305,31 +3317,31 @@
         <v>90</v>
       </c>
       <c r="B82" s="3">
-        <v>715362</v>
+        <v>324837</v>
       </c>
       <c r="C82" s="3">
-        <v>25983</v>
+        <v>20426</v>
       </c>
       <c r="D82" s="3">
-        <v>356347</v>
+        <v>118825</v>
       </c>
       <c r="E82" s="3">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F82" s="3">
-        <v>16800</v>
+        <v>800</v>
       </c>
       <c r="G82" s="3">
         <v>0</v>
       </c>
       <c r="H82" s="3">
-        <v>62000</v>
+        <v>48115</v>
       </c>
       <c r="I82" s="3">
-        <v>0</v>
+        <v>12123</v>
       </c>
       <c r="J82" s="3">
-        <v>1176492</v>
+        <v>540126</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -3337,19 +3349,19 @@
         <v>91</v>
       </c>
       <c r="B83" s="3">
-        <v>324604</v>
+        <v>549720</v>
       </c>
       <c r="C83" s="3">
-        <v>225717</v>
+        <v>95047</v>
       </c>
       <c r="D83" s="3">
-        <v>13867</v>
+        <v>30403</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>22000</v>
       </c>
       <c r="F83" s="3">
-        <v>5100</v>
+        <v>3500</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -3358,10 +3370,10 @@
         <v>0</v>
       </c>
       <c r="I83" s="3">
-        <v>3701</v>
+        <v>0</v>
       </c>
       <c r="J83" s="3">
-        <v>572989</v>
+        <v>700670</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -3369,31 +3381,31 @@
         <v>92</v>
       </c>
       <c r="B84" s="3">
-        <v>913882</v>
+        <v>863902</v>
       </c>
       <c r="C84" s="3">
-        <v>108321</v>
+        <v>444041</v>
       </c>
       <c r="D84" s="3">
-        <v>119001</v>
+        <v>179059</v>
       </c>
       <c r="E84" s="3">
-        <v>115730</v>
+        <v>0</v>
       </c>
       <c r="F84" s="3">
-        <v>2900</v>
+        <v>48527</v>
       </c>
       <c r="G84" s="3">
         <v>0</v>
       </c>
       <c r="H84" s="3">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="I84" s="3">
-        <v>0</v>
+        <v>5328</v>
       </c>
       <c r="J84" s="3">
-        <v>1309834</v>
+        <v>1540857</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -3401,19 +3413,19 @@
         <v>93</v>
       </c>
       <c r="B85" s="3">
-        <v>656431</v>
+        <v>1488961</v>
       </c>
       <c r="C85" s="3">
-        <v>195186</v>
+        <v>329914</v>
       </c>
       <c r="D85" s="3">
-        <v>99000</v>
+        <v>162486</v>
       </c>
       <c r="E85" s="3">
-        <v>0</v>
+        <v>25500</v>
       </c>
       <c r="F85" s="3">
-        <v>25000</v>
+        <v>20451</v>
       </c>
       <c r="G85" s="3">
         <v>0</v>
@@ -3422,10 +3434,10 @@
         <v>0</v>
       </c>
       <c r="I85" s="3">
-        <v>0</v>
+        <v>8028</v>
       </c>
       <c r="J85" s="3">
-        <v>975617</v>
+        <v>2035340</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -3433,31 +3445,31 @@
         <v>94</v>
       </c>
       <c r="B86" s="3">
-        <v>523695</v>
+        <v>715362</v>
       </c>
       <c r="C86" s="3">
-        <v>240102</v>
+        <v>25983</v>
       </c>
       <c r="D86" s="3">
-        <v>73714</v>
+        <v>356347</v>
       </c>
       <c r="E86" s="3">
         <v>0</v>
       </c>
       <c r="F86" s="3">
-        <v>11176</v>
+        <v>16800</v>
       </c>
       <c r="G86" s="3">
         <v>0</v>
       </c>
       <c r="H86" s="3">
-        <v>0</v>
+        <v>62000</v>
       </c>
       <c r="I86" s="3">
-        <v>17810</v>
+        <v>0</v>
       </c>
       <c r="J86" s="3">
-        <v>866497</v>
+        <v>1176492</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -3465,31 +3477,31 @@
         <v>95</v>
       </c>
       <c r="B87" s="3">
-        <v>1810331</v>
+        <v>324604</v>
       </c>
       <c r="C87" s="3">
-        <v>204940</v>
+        <v>225717</v>
       </c>
       <c r="D87" s="3">
-        <v>122089</v>
+        <v>13867</v>
       </c>
       <c r="E87" s="3">
         <v>0</v>
       </c>
       <c r="F87" s="3">
-        <v>7500</v>
+        <v>5100</v>
       </c>
       <c r="G87" s="3">
         <v>0</v>
       </c>
       <c r="H87" s="3">
-        <v>150000</v>
+        <v>0</v>
       </c>
       <c r="I87" s="3">
-        <v>65886</v>
+        <v>3701</v>
       </c>
       <c r="J87" s="3">
-        <v>2360746</v>
+        <v>572989</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -3497,31 +3509,31 @@
         <v>96</v>
       </c>
       <c r="B88" s="3">
-        <v>273328</v>
+        <v>913882</v>
       </c>
       <c r="C88" s="3">
-        <v>1977</v>
+        <v>108321</v>
       </c>
       <c r="D88" s="3">
-        <v>186657</v>
+        <v>119001</v>
       </c>
       <c r="E88" s="3">
-        <v>34950</v>
+        <v>115730</v>
       </c>
       <c r="F88" s="3">
-        <v>23700</v>
+        <v>2900</v>
       </c>
       <c r="G88" s="3">
         <v>0</v>
       </c>
       <c r="H88" s="3">
-        <v>3680</v>
+        <v>50000</v>
       </c>
       <c r="I88" s="3">
-        <v>50176</v>
+        <v>0</v>
       </c>
       <c r="J88" s="3">
-        <v>574468</v>
+        <v>1309834</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -3529,19 +3541,19 @@
         <v>97</v>
       </c>
       <c r="B89" s="3">
-        <v>440259</v>
+        <v>656431</v>
       </c>
       <c r="C89" s="3">
-        <v>5621</v>
+        <v>195186</v>
       </c>
       <c r="D89" s="3">
-        <v>88889</v>
+        <v>99000</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>51601</v>
+        <v>25000</v>
       </c>
       <c r="G89" s="3">
         <v>0</v>
@@ -3550,10 +3562,10 @@
         <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>5564</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>591934</v>
+        <v>975617</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -3561,31 +3573,31 @@
         <v>98</v>
       </c>
       <c r="B90" s="3">
-        <v>1252360</v>
+        <v>523695</v>
       </c>
       <c r="C90" s="3">
-        <v>38578</v>
+        <v>240102</v>
       </c>
       <c r="D90" s="3">
-        <v>11100</v>
+        <v>73714</v>
       </c>
       <c r="E90" s="3">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="F90" s="3">
-        <v>16475</v>
+        <v>11176</v>
       </c>
       <c r="G90" s="3">
         <v>0</v>
       </c>
       <c r="H90" s="3">
-        <v>79500</v>
+        <v>0</v>
       </c>
       <c r="I90" s="3">
-        <v>0</v>
+        <v>17810</v>
       </c>
       <c r="J90" s="3">
-        <v>1403013</v>
+        <v>866497</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -3593,31 +3605,31 @@
         <v>99</v>
       </c>
       <c r="B91" s="3">
-        <v>923650</v>
+        <v>1810331</v>
       </c>
       <c r="C91" s="3">
-        <v>42383</v>
+        <v>204940</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>122089</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
       <c r="F91" s="3">
-        <v>500</v>
+        <v>7500</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="I91" s="3">
-        <v>38240</v>
+        <v>65886</v>
       </c>
       <c r="J91" s="3">
-        <v>1004773</v>
+        <v>2360746</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -3625,30 +3637,158 @@
         <v>100</v>
       </c>
       <c r="B92" s="3">
+        <v>273328</v>
+      </c>
+      <c r="C92" s="3">
+        <v>1977</v>
+      </c>
+      <c r="D92" s="3">
+        <v>186657</v>
+      </c>
+      <c r="E92" s="3">
+        <v>34950</v>
+      </c>
+      <c r="F92" s="3">
+        <v>23700</v>
+      </c>
+      <c r="G92" s="3">
+        <v>0</v>
+      </c>
+      <c r="H92" s="3">
+        <v>3680</v>
+      </c>
+      <c r="I92" s="3">
+        <v>50176</v>
+      </c>
+      <c r="J92" s="3">
+        <v>574468</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B93" s="3">
+        <v>440259</v>
+      </c>
+      <c r="C93" s="3">
+        <v>5621</v>
+      </c>
+      <c r="D93" s="3">
+        <v>88889</v>
+      </c>
+      <c r="E93" s="3">
+        <v>0</v>
+      </c>
+      <c r="F93" s="3">
+        <v>51601</v>
+      </c>
+      <c r="G93" s="3">
+        <v>0</v>
+      </c>
+      <c r="H93" s="3">
+        <v>0</v>
+      </c>
+      <c r="I93" s="3">
+        <v>5564</v>
+      </c>
+      <c r="J93" s="3">
+        <v>591934</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B94" s="3">
+        <v>1252360</v>
+      </c>
+      <c r="C94" s="3">
+        <v>38578</v>
+      </c>
+      <c r="D94" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F94" s="3">
+        <v>16475</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>79500</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>1403013</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B95" s="3">
+        <v>923650</v>
+      </c>
+      <c r="C95" s="3">
+        <v>42383</v>
+      </c>
+      <c r="D95" s="3">
+        <v>0</v>
+      </c>
+      <c r="E95" s="3">
+        <v>0</v>
+      </c>
+      <c r="F95" s="3">
+        <v>500</v>
+      </c>
+      <c r="G95" s="3">
+        <v>0</v>
+      </c>
+      <c r="H95" s="3">
+        <v>0</v>
+      </c>
+      <c r="I95" s="3">
+        <v>38240</v>
+      </c>
+      <c r="J95" s="3">
+        <v>1004773</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B96" s="3">
         <v>307946</v>
       </c>
-      <c r="C92" s="3">
+      <c r="C96" s="3">
         <v>155058</v>
       </c>
-      <c r="D92" s="3">
+      <c r="D96" s="3">
         <v>4786</v>
       </c>
-      <c r="E92" s="3">
-        <v>0</v>
-      </c>
-      <c r="F92" s="3">
+      <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>8940</v>
       </c>
-      <c r="G92" s="3">
-        <v>0</v>
-      </c>
-      <c r="H92" s="3">
-        <v>0</v>
-      </c>
-      <c r="I92" s="3">
-        <v>0</v>
-      </c>
-      <c r="J92" s="3">
+      <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>476730</v>
       </c>
     </row>
